--- a/notice_and_meeting/datas/TC_report.xlsx
+++ b/notice_and_meeting/datas/TC_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -37,6 +37,18 @@
     <t>测试网络</t>
   </si>
   <si>
+    <t>Agileone</t>
+  </si>
+  <si>
+    <t>V1.4</t>
+  </si>
+  <si>
+    <t>Windows10</t>
+  </si>
+  <si>
+    <t>普通局域网</t>
+  </si>
+  <si>
     <t>用例总数</t>
   </si>
   <si>
@@ -47,6 +59,9 @@
   </si>
   <si>
     <t>测试日期</t>
+  </si>
+  <si>
+    <t>2019-05-25 10:41:03</t>
   </si>
   <si>
     <t>分数</t>
@@ -459,13 +474,17 @@
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1">
@@ -473,11 +492,15 @@
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1">
@@ -485,11 +508,15 @@
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1">
@@ -497,11 +524,15 @@
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1"/>
